--- a/medicine/Handicap/Murk/Murk.xlsx
+++ b/medicine/Handicap/Murk/Murk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Murk (Mørke, littéralement « Ténèbres ») est un thriller psychologique britannico-danois coécrit et réalisé par Jannik Johansen, sorti en 2005. Il s'agit d'une histoire réelle inspirée du suicide de la sœur du réalisateur[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Murk (Mørke, littéralement « Ténèbres ») est un thriller psychologique britannico-danois coécrit et réalisé par Jannik Johansen, sorti en 2005. Il s'agit d'une histoire réelle inspirée du suicide de la sœur du réalisateur.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julie (Lotte Bergstrøm), jeune femme handicapée en fauteuil roulant, se marie à Anker (Nicolas Bro), homme venant de nulle part, qu'elle a rencontré sur internet, six mois auparavant. Après une soirée de noces, elle s'est suicidée dans la salle de bain. Ainsi le journaliste Jacob, frère de Julie, la découvre inerte dans les bras de son mari (Nikolaj Lie Kaas), en pleine nuit. Quelques jours plus tard, en rangeant les affaires de Julie, Jacob effeuille un livre appartenant à Anker : une feuille découpée tombe. C'est un morceau de remerciement lors des obsèques, celui d'une autre femme Rikke Bjerre, avant Julie, est Le même de celui pour Julie. Jacob veut en avoir le cœur net et, de chez lui, téléphone à son cabinet de journaliste afin de trouver où habite Anker, vu que ce dernier est injoignable au téléphone. Il se déplace alors à la campagne, où semble vivre Anker, et rencontre un policier Carl (Morten Lützhøft) qui lui montre le chemin : Jacob retrouve Anker, avec une autre femme handicapée…
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nikolaj Lie Kaas : Jacob
@@ -587,7 +603,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Mørke
@@ -604,14 +622,14 @@
 Production déléguée : Ole Bendixen, Zorana Piggott et Søren Poulsen
 Sociétés de production : Film and Music Entertainment et Fine &amp; Mellow Productions
 Société de distribution : Nordisk Film
-Bugget : 22 millions DKK[2]
+Bugget : 22 millions DKK
 Pays d'origine :  Danemark /  Royaume-Uni
 Langue originale : danois
 Format : couleur
 Genre : thriller psychologique, drame
 Durée : 124 minutes
 Dates de sortie :
-Écosse : 19 août 2005 (avant première mondiale au festival international du film d'Édimbourg)[3]
+Écosse : 19 août 2005 (avant première mondiale au festival international du film d'Édimbourg)
 Danemark : 23 août 2005 (Festival international du film de Copenhague) ; 7 octobre 2005 (sortie nationale)
 Monde : 11 février 2021 (Netflix)</t>
         </is>
@@ -641,9 +659,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 2005, Dagbladet Information révèle que le scénario du film est inspiré d'une expérience vécue de la sœur du réalisateur Jannik Johansen qui, « dix-neuf ans, a tenté de se suicider. Ce fut raté, elle a subi des lésions cérébrales et a vécu pendant des années comme handicapée physique et mentale. (…) « Nous n'avons pas compris ce qui s'était passé », dit Jannik Johansen. « Être laissé pour compte est vraiment difficile car il y a beaucoup de questions auxquelles on n'obtient jamais de réponse ». (…) Sa sœur aînée a de nouveau tenté de se suicider. Cette fois, il réussit d'avoir de nouvelles questions. « Et vous voulez essayer de trouver une réponse, quelque chose qui puisse vous soulager », poursuit-il, « Si vous dites : C'était la faute de cet homme, ce n'est pas moi » »[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2005, Dagbladet Information révèle que le scénario du film est inspiré d'une expérience vécue de la sœur du réalisateur Jannik Johansen qui, « dix-neuf ans, a tenté de se suicider. Ce fut raté, elle a subi des lésions cérébrales et a vécu pendant des années comme handicapée physique et mentale. (…) « Nous n'avons pas compris ce qui s'était passé », dit Jannik Johansen. « Être laissé pour compte est vraiment difficile car il y a beaucoup de questions auxquelles on n'obtient jamais de réponse ». (…) Sa sœur aînée a de nouveau tenté de se suicider. Cette fois, il réussit d'avoir de nouvelles questions. « Et vous voulez essayer de trouver une réponse, quelque chose qui puisse vous soulager », poursuit-il, « Si vous dites : C'était la faute de cet homme, ce n'est pas moi » ».
 </t>
         </is>
       </c>
@@ -672,9 +692,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est sélectionné et projeté le 19 août 2005 au festival international du film d'Édimbourg en Écosse[3] et le 23 août 2005 au festival international du film de Copenhague. Le film sort le 7 octobre 2005 dans les salles à Danemark.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est sélectionné et projeté le 19 août 2005 au festival international du film d'Édimbourg en Écosse et le 23 août 2005 au festival international du film de Copenhague. Le film sort le 7 octobre 2005 dans les salles à Danemark.
 </t>
         </is>
       </c>
